--- a/static/excels/제424회국회(임시회) 본회의 출결현황.xlsx
+++ b/static/excels/제424회국회(임시회) 본회의 출결현황.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\College_Data\2-1_semester\OpenSource_basic_project\Team Project\Project Folder\myproject\static\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91B388C8-FCD3-4AED-A775-3096A12AAC46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98BFAB3B-DDFC-4DEA-896B-E35CC4B0F376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6352" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6371" uniqueCount="371">
   <si>
     <t>구분</t>
   </si>
@@ -1172,6 +1172,21 @@
   <si>
     <t>24. 12. 13. 비례승계</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>조국</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>24. 12. 12. 퇴직</t>
   </si>
 </sst>
 </file>
@@ -1278,7 +1293,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1291,7 +1306,7 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1300,8 +1315,14 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1583,10 +1604,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V304"/>
+  <dimension ref="A1:V305"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="61" zoomScaleNormal="61" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3:O4"/>
+    <sheetView tabSelected="1" topLeftCell="A283" zoomScale="61" zoomScaleNormal="61" workbookViewId="0">
+      <selection activeCell="T309" sqref="T309"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1605,10 +1626,10 @@
   <sheetData>
     <row r="1" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="1:21" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -1653,27 +1674,27 @@
       <c r="P2" s="6" t="s">
         <v>364</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="Q2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="R2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="S2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="T2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="U2" s="4" t="s">
+      <c r="U2" s="7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -1703,30 +1724,30 @@
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
-      <c r="P3" s="4" t="s">
+      <c r="P3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="Q3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="R3" s="4" t="s">
+      <c r="Q3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="R3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="S3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="T3" s="4" t="s">
+      <c r="T3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="U3" s="4" t="s">
+      <c r="U3" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -1756,22 +1777,22 @@
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
-      <c r="P4" s="4" t="s">
+      <c r="P4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="Q4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="R4" s="4" t="s">
+      <c r="Q4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="R4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="S4" s="4" t="s">
+      <c r="S4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="T4" s="4" t="s">
+      <c r="T4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="U4" s="4" t="s">
+      <c r="U4" s="7" t="s">
         <v>15</v>
       </c>
     </row>
@@ -21278,13 +21299,67 @@
         <v>29</v>
       </c>
     </row>
+    <row r="305" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A305" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="B305" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C305" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D305" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="E305" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="F305" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="G305" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H305" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I305" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J305" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="K305" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="L305" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="P305" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="Q305" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="R305" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="S305" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="T305" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="U305" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="V305" s="9" t="s">
+        <v>370</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
     <mergeCell ref="L3:L4"/>
     <mergeCell ref="C2:O2"/>
     <mergeCell ref="P2:U2"/>
@@ -21297,6 +21372,11 @@
     <mergeCell ref="O3:O4"/>
     <mergeCell ref="P3:P4"/>
     <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
